--- a/biology/Botanique/Peuplier_à_grandes_dents/Peuplier_à_grandes_dents.xlsx
+++ b/biology/Botanique/Peuplier_à_grandes_dents/Peuplier_à_grandes_dents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peuplier_%C3%A0_grandes_dents</t>
+          <t>Peuplier_à_grandes_dents</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus grandidentata
 Le Peuplier à grandes dents (Populus grandidentata) est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un peuplier originaire du nord-est des États-Unis et du sud-est du Canada.  C'est une espèce semblable au peuplier faux-tremble.
-C'est un arbre pouvant atteindre 20 m de hauteur, avec un tronc de 30 cm.  Il peut vivre jusqu'à 60 ans[1].
+C'est un arbre pouvant atteindre 20 m de hauteur, avec un tronc de 30 cm.  Il peut vivre jusqu'à 60 ans.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peuplier_%C3%A0_grandes_dents</t>
+          <t>Peuplier_à_grandes_dents</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La feuille du peuplier à grandes dents est ovale ou presque ronde, alterne, simple, crénelée, affichant de 7 à 15 grandes dents arrondies et inégales de chaque côté. Le dessus est vert foncé et le dessous plus pâle. 
 L'écorce quant à elle est grisâtre, légèrement orangée, lisse chez le petit arbre et se crevasse profondément et devient progressivement plus grise chez les vieux spécimens. 
